--- a/results/dopamine_studies.xlsx
+++ b/results/dopamine_studies.xlsx
@@ -3915,7 +3915,7 @@
         <v>211</v>
       </c>
       <c r="J73" t="s">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="K73" t="s">
         <v>31</v>
